--- a/Financial Analysis/Models (Defence).xlsx
+++ b/Financial Analysis/Models (Defence).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CBCED3-110D-4EA3-BC44-BEEB1089C21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C21B19-EAD8-4770-BAFE-DD2AFCC6848F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6AEFCEA-ADAE-4BFE-85FB-A83490FE9071}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Company</t>
   </si>
@@ -254,17 +254,21 @@
   </si>
   <si>
     <t>RCAT US</t>
+  </si>
+  <si>
+    <t>2024 EV/R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0"/>
     <numFmt numFmtId="165" formatCode="0\x"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -366,7 +370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +419,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1770,13 +1780,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087AB355-3143-44BC-BC97-6E84672F8EDE}">
-  <dimension ref="B2:AJ21"/>
+  <dimension ref="B2:AK21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,20 +1795,20 @@
     <col min="2" max="2" width="17.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="24" width="8.88671875" style="11"/>
-    <col min="25" max="26" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" style="11" customWidth="1"/>
-    <col min="32" max="33" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="5"/>
-    <col min="35" max="35" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.88671875" style="5"/>
+    <col min="5" max="25" width="8.88671875" style="11"/>
+    <col min="26" max="27" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.33203125" style="11" customWidth="1"/>
+    <col min="33" max="34" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.88671875" style="5"/>
+    <col min="36" max="36" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,41 +1878,44 @@
       <c r="X2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
@@ -1922,7 +1935,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="7">
-        <f t="shared" ref="R3:W3" si="0">TRIMMEAN(R4:R1048576,80%)</f>
+        <f t="shared" ref="R3:Y3" si="0">TRIMMEAN(R4:R1048576,80%)</f>
         <v>25.311465398668286</v>
       </c>
       <c r="S3" s="7">
@@ -1946,37 +1959,41 @@
         <v>11.637538166893249</v>
       </c>
       <c r="X3" s="8"/>
-      <c r="Y3" s="9">
-        <f t="shared" ref="Y3:AD3" si="1">TRIMMEAN(Y4:Y1048576,80%)</f>
+      <c r="Y3" s="21">
+        <f t="shared" si="0"/>
+        <v>2.2678747573429807</v>
+      </c>
+      <c r="Z3" s="9">
+        <f t="shared" ref="Z3:AE3" si="1">TRIMMEAN(Z4:Z1048576,80%)</f>
         <v>7.3070714604045461E-2</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AA3" s="9">
         <f t="shared" si="1"/>
         <v>7.7984977390838539E-2</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AB3" s="9">
         <f t="shared" si="1"/>
         <v>0.18299375242489391</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AC3" s="9">
         <f t="shared" si="1"/>
         <v>9.0423047405503901E-2</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AD3" s="9">
         <f t="shared" si="1"/>
         <v>0.08</v>
       </c>
-      <c r="AD3" s="9">
+      <c r="AE3" s="9">
         <f t="shared" si="1"/>
         <v>-0.23973616282793675</v>
       </c>
-      <c r="AE3" s="10" t="e">
-        <f>INDEX(AE4:AE52,MODE(MATCH(AE4:AE52,AE4:AE52,0)))</f>
+      <c r="AF3" s="10" t="e">
+        <f>INDEX(AF4:AF52,MODE(MATCH(AF4:AF52,AF4:AF52,0)))</f>
         <v>#N/A</v>
       </c>
-      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
@@ -2051,35 +2068,39 @@
         <f>[1]Model!$Z$5</f>
         <v>80738</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="20">
+        <f>G4/X4</f>
+        <v>2.422584161113726</v>
+      </c>
+      <c r="Z4" s="16">
         <f>[1]Model!$Y$25</f>
         <v>2.7521841548140857E-2</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="AA4" s="16">
         <f>[1]Model!$Z$25</f>
         <v>0.17147417295414979</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AB4" s="16">
         <f>[1]Model!$Z$28</f>
         <v>0.19086427704426664</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AC4" s="16">
         <f>[1]Model!$Z$31</f>
         <v>8.2612896034085559E-2</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AH4" s="11">
         <v>1922</v>
       </c>
-      <c r="AI4" s="18">
+      <c r="AJ4" s="18">
         <f>[1]Main!$E$3</f>
         <v>45770</v>
       </c>
-      <c r="AJ4" s="18">
+      <c r="AK4" s="18">
         <f>[1]Main!$G$3</f>
         <v>45867</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
@@ -2150,35 +2171,39 @@
         <f>[2]Model!$AU$5</f>
         <v>66517</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="20">
+        <f t="shared" ref="Y5:Y8" si="3">G5/X5</f>
+        <v>2.4320689748485349</v>
+      </c>
+      <c r="Z5" s="16">
         <f>[2]Model!$AT$28</f>
         <v>0.16793778525102088</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="AA5" s="16">
         <f>[2]Model!$AU$28</f>
         <v>-0.14495976553461709</v>
       </c>
-      <c r="AA5" s="16">
+      <c r="AB5" s="16">
         <f>[2]Model!$AU$31</f>
         <v>-2.9932197784025137E-2</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AC5" s="16">
         <f>[2]Model!$AU$34</f>
         <v>-0.16096636949952645</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AH5" s="11">
         <v>1916</v>
       </c>
-      <c r="AI5" s="18">
+      <c r="AJ5" s="18">
         <f>[2]Main!$E$3</f>
         <v>45770</v>
       </c>
-      <c r="AJ5" s="18">
+      <c r="AK5" s="18">
         <f>[2]Main!$G$3</f>
         <v>45861</v>
       </c>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B6" s="19" t="s">
         <v>32</v>
       </c>
@@ -2249,35 +2274,39 @@
         <f>[3]Model!$Y$5</f>
         <v>38498</v>
       </c>
-      <c r="Y6" s="16">
+      <c r="Y6" s="20">
+        <f t="shared" si="3"/>
+        <v>3.8712184529066445</v>
+      </c>
+      <c r="Z6" s="16">
         <f>[3]Model!X$27</f>
         <v>3.3722438391699194E-2</v>
       </c>
-      <c r="Z6" s="16">
+      <c r="AA6" s="16">
         <f>[3]Model!Y$27</f>
         <v>5.0079100976487823E-2</v>
       </c>
-      <c r="AA6" s="16">
+      <c r="AB6" s="16">
         <f>[3]Model!$Y$30</f>
         <v>0.38085095329627511</v>
       </c>
-      <c r="AB6" s="16">
+      <c r="AC6" s="16">
         <f>[3]Model!$Y$33</f>
         <v>0.19328276793599666</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AH6" s="11">
         <v>1906</v>
       </c>
-      <c r="AI6" s="18">
+      <c r="AJ6" s="18">
         <f>[3]Main!$E$3</f>
         <v>45770</v>
       </c>
-      <c r="AJ6" s="18">
+      <c r="AK6" s="18">
         <f>[3]Main!$G$3</f>
         <v>45776</v>
       </c>
     </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>25</v>
       </c>
@@ -2341,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="15">
-        <f t="shared" ref="R7:R8" si="3">$G7/M7</f>
+        <f t="shared" ref="R7:R8" si="4">$G7/M7</f>
         <v>23.736787856071963</v>
       </c>
       <c r="S7" s="15"/>
@@ -2352,35 +2381,39 @@
         <f>[4]Model!$AC$5</f>
         <v>71043</v>
       </c>
-      <c r="Y7" s="16">
+      <c r="Y7" s="20">
+        <f t="shared" si="3"/>
+        <v>1.7828568613374998</v>
+      </c>
+      <c r="Z7" s="16">
         <f>[4]Model!$AB$27</f>
         <v>2.4051285160038738E-2</v>
       </c>
-      <c r="Z7" s="16">
+      <c r="AA7" s="16">
         <f>[4]Model!$AC$27</f>
         <v>5.1382989744120922E-2</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AB7" s="16">
         <f>[4]Model!$AC$30</f>
         <v>8.4089917373984774E-2</v>
       </c>
-      <c r="AB7" s="16">
+      <c r="AC7" s="16">
         <f>[4]Model!$AC$31</f>
         <v>9.8714862829553926E-2</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AH7" s="11">
         <v>1912</v>
       </c>
-      <c r="AI7" s="18">
+      <c r="AJ7" s="18">
         <f>[4]Main!$E$3</f>
         <v>45723</v>
       </c>
-      <c r="AJ7" s="18">
+      <c r="AK7" s="18">
         <f>[4]Main!$G$3</f>
         <v>45769</v>
       </c>
     </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>33</v>
       </c>
@@ -2444,42 +2477,46 @@
         <v>0</v>
       </c>
       <c r="R8" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.432986767485822</v>
       </c>
       <c r="X8" s="14">
         <f>[5]Model!$J$3</f>
         <v>69230</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5547074967499639</v>
+      </c>
+      <c r="Z8" s="16">
         <f>[5]Model!$I$26</f>
         <v>0.11372802613889688</v>
       </c>
-      <c r="Z8" s="16">
+      <c r="AA8" s="16">
         <f>[5]Model!$J$26</f>
         <v>5.7818659658344318E-2</v>
       </c>
-      <c r="AA8" s="16">
+      <c r="AB8" s="16">
         <f>[5]Model!$J$27</f>
         <v>0.15419615773508594</v>
       </c>
-      <c r="AB8" s="16">
+      <c r="AC8" s="16">
         <f>[5]Model!$J$31</f>
         <v>6.9391882132023686E-2</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AH8" s="11">
         <v>1998</v>
       </c>
-      <c r="AI8" s="18">
+      <c r="AJ8" s="18">
         <f>[5]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AJ8" s="18">
+      <c r="AK8" s="18">
         <f>[5]Main!$G$3</f>
         <v>45777</v>
       </c>
     </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
@@ -2487,7 +2524,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
@@ -2558,35 +2595,39 @@
         <f>[6]Model!$Y$5</f>
         <v>41033</v>
       </c>
-      <c r="Y10" s="16">
+      <c r="Y10" s="20">
+        <f t="shared" ref="Y10:Y11" si="5">G10/X10</f>
+        <v>1.961746277386494</v>
+      </c>
+      <c r="Z10" s="16">
         <f>[6]Model!X$24</f>
         <v>7.3438609912026775E-2</v>
       </c>
-      <c r="Z10" s="16">
+      <c r="AA10" s="16">
         <f>[6]Model!Y$24</f>
         <v>4.4362433189106598E-2</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AB10" s="16">
         <f>[6]Model!$Y$27</f>
         <v>0.20378719567177639</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AC10" s="16">
         <f>[6]Model!$Y$29</f>
         <v>0.10649964662588648</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AH10" s="11">
         <v>1939</v>
       </c>
-      <c r="AI10" s="18">
+      <c r="AJ10" s="18">
         <f>[6]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AJ10" s="18">
+      <c r="AK10" s="18">
         <f>[6]Main!$G$3</f>
         <v>45862</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B11" s="19" t="s">
         <v>31</v>
       </c>
@@ -2650,42 +2691,46 @@
         <v>0</v>
       </c>
       <c r="R11" s="15">
-        <f t="shared" ref="R11" si="4">$G11/M11</f>
+        <f t="shared" ref="R11" si="6">$G11/M11</f>
         <v>21.067740877842411</v>
       </c>
       <c r="X11" s="14">
         <f>[7]Model!$AB$5</f>
         <v>47716</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="20">
+        <f t="shared" si="5"/>
+        <v>1.6698423170425014</v>
+      </c>
+      <c r="Z11" s="16">
         <f>[7]Model!$AA$22</f>
         <v>7.2702819296064147E-2</v>
       </c>
-      <c r="Z11" s="16">
+      <c r="AA11" s="16">
         <f>[7]Model!$AB$22</f>
         <v>0.12878501135503417</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AB11" s="16">
         <f>[7]Model!$AB$25</f>
         <v>0.15432978455863861</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AC11" s="16">
         <f>[7]Model!$AB$27</f>
         <v>0.10051135887333389</v>
       </c>
-      <c r="AG11" s="11">
+      <c r="AH11" s="11">
         <v>1952</v>
       </c>
-      <c r="AI11" s="18">
+      <c r="AJ11" s="18">
         <f>[7]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AJ11" s="18">
+      <c r="AK11" s="18">
         <f>[7]Main!$G$3</f>
         <v>45861</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
@@ -2693,7 +2738,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
@@ -2758,19 +2803,19 @@
         <v>116.91631086142321</v>
       </c>
       <c r="S13" s="15">
-        <f t="shared" ref="S13:V13" si="5">$G13/N13</f>
+        <f t="shared" ref="S13:V13" si="7">$G13/N13</f>
         <v>87.07574616457461</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>52.752858907825278</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.156727476505736</v>
       </c>
       <c r="V13" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>39.158800127732214</v>
       </c>
       <c r="W13" s="15">
@@ -2781,47 +2826,51 @@
         <f>[8]Model!$AC$18</f>
         <v>7175</v>
       </c>
-      <c r="Y13" s="16">
+      <c r="Y13" s="20">
+        <f t="shared" ref="Y13:Y14" si="8">G13/X13</f>
+        <v>8.7015066202090594</v>
+      </c>
+      <c r="Z13" s="16">
         <f>[8]Model!$AB$49</f>
         <v>0.1327089591800672</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="AA13" s="16">
         <f>[8]Model!$AC$49</f>
         <v>0.11934477379095165</v>
       </c>
-      <c r="AA13" s="16">
+      <c r="AB13" s="16">
         <f>[8]Model!$AC$51</f>
         <v>0.26327526132404183</v>
       </c>
-      <c r="AB13" s="16">
+      <c r="AC13" s="16">
         <f>[8]Model!$AC$56</f>
         <v>0.11777003484320557</v>
       </c>
-      <c r="AC13" s="16">
+      <c r="AD13" s="16">
         <f>[8]Model!$AS$46</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AD13" s="16">
+      <c r="AE13" s="16">
         <f>[8]Model!$AS$52</f>
         <v>-0.62242636061307977</v>
       </c>
-      <c r="AE13" s="11" t="str">
+      <c r="AF13" s="11" t="str">
         <f>[8]Model!$AS$53</f>
         <v>Heavily overvalued</v>
       </c>
-      <c r="AG13" s="11">
+      <c r="AH13" s="11">
         <v>1927</v>
       </c>
-      <c r="AI13" s="18">
+      <c r="AJ13" s="18">
         <f>[8]Main!$F$3</f>
         <v>45734</v>
       </c>
-      <c r="AJ13" s="18">
+      <c r="AK13" s="18">
         <f>[8]Main!$H$3</f>
         <v>45455</v>
       </c>
     </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>28</v>
       </c>
@@ -2888,35 +2937,39 @@
         <f>[9]Model!$X$5</f>
         <v>21325</v>
       </c>
-      <c r="Y14" s="16">
+      <c r="Y14" s="20">
+        <f t="shared" si="8"/>
+        <v>2.4192938335287226</v>
+      </c>
+      <c r="Z14" s="16">
         <f>[9]Model!$W$24</f>
         <v>0.13814324229281438</v>
       </c>
-      <c r="Z14" s="16">
+      <c r="AA14" s="16">
         <f>[9]Model!$X$24</f>
         <v>9.815129512333276E-2</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="AB14" s="16">
         <f>[9]Model!$X$27</f>
         <v>0.25903868698710436</v>
       </c>
-      <c r="AB14" s="16">
+      <c r="AC14" s="16">
         <f>[9]Model!$X$29</f>
         <v>8.9941383352872217E-2</v>
       </c>
-      <c r="AG14" s="11">
+      <c r="AH14" s="11">
         <v>1890</v>
       </c>
-      <c r="AI14" s="18">
+      <c r="AJ14" s="18">
         <f>[9]Main!$E$3</f>
         <v>45771</v>
       </c>
-      <c r="AJ14" s="18">
+      <c r="AK14" s="18">
         <f>[9]Main!$G$3</f>
         <v>45771</v>
       </c>
     </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>35</v>
       </c>
@@ -2924,7 +2977,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2932,7 +2985,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2940,7 +2993,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>39</v>
       </c>
@@ -3004,23 +3057,23 @@
         <v>2000.3647039200005</v>
       </c>
       <c r="R18" s="15">
-        <f t="shared" ref="R18:V18" si="6">$G18/M18</f>
+        <f t="shared" ref="R18:V18" si="9">$G18/M18</f>
         <v>25.18994402985075</v>
       </c>
       <c r="S18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26.498488586545687</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.691700242018486</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>14.040199270318405</v>
       </c>
       <c r="V18" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>13.499348367366487</v>
       </c>
       <c r="W18" s="15">
@@ -3031,47 +3084,51 @@
         <f>[10]Model!$Y$3</f>
         <v>17763</v>
       </c>
-      <c r="Y18" s="16">
+      <c r="Y18" s="20">
+        <f>G18/X18</f>
+        <v>1.5202173056353094</v>
+      </c>
+      <c r="Z18" s="16">
         <f>[10]Model!$X$22</f>
         <v>3.9284986066743688E-2</v>
       </c>
-      <c r="Z18" s="16">
+      <c r="AA18" s="16">
         <f>[10]Model!$Y$22</f>
         <v>0.1616637237590739</v>
       </c>
-      <c r="AA18" s="16">
+      <c r="AB18" s="16">
         <f>[10]Model!$Y$23</f>
         <v>0.11349434217193041</v>
       </c>
-      <c r="AB18" s="16">
+      <c r="AC18" s="16">
         <f>[10]Model!$Y$25</f>
         <v>6.6430220120475142E-2</v>
       </c>
-      <c r="AC18" s="16">
+      <c r="AD18" s="16">
         <f>[10]Model!$AM$24</f>
         <v>0.08</v>
       </c>
-      <c r="AD18" s="16">
+      <c r="AE18" s="16">
         <f>[10]Model!$AM$30</f>
         <v>-8.2951850912037273E-2</v>
       </c>
-      <c r="AE18" s="11" t="str">
+      <c r="AF18" s="11" t="str">
         <f>[10]Model!$AM$31</f>
         <v>Fairly valued</v>
       </c>
-      <c r="AG18" s="11">
+      <c r="AH18" s="11">
         <v>1996</v>
       </c>
-      <c r="AI18" s="18">
+      <c r="AJ18" s="18">
         <f>[10]Main!$E$3</f>
         <v>45736</v>
       </c>
-      <c r="AJ18" s="18">
+      <c r="AK18" s="18">
         <f>[10]Main!$G$3</f>
         <v>45868</v>
       </c>
     </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
@@ -3079,7 +3136,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
@@ -3087,7 +3144,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>55</v>
       </c>
@@ -3142,37 +3199,41 @@
         <f>[11]Model!$Q$3</f>
         <v>5.5</v>
       </c>
-      <c r="AA21" s="16">
+      <c r="Y21" s="20">
+        <f>G21/X21</f>
+        <v>11.116909090909092</v>
+      </c>
+      <c r="AB21" s="16">
         <f>[11]Model!$Q$26</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="AB21" s="16">
+      <c r="AC21" s="16">
         <f>[11]Model!$Q$30</f>
         <v>-1.0363636363636362</v>
       </c>
-      <c r="AC21" s="16">
+      <c r="AD21" s="16">
         <f>[11]Model!$AF$27</f>
         <v>0.13</v>
       </c>
-      <c r="AD21" s="16">
+      <c r="AE21" s="16">
         <f>[11]Model!$AF$33</f>
         <v>-0.23973616282793675</v>
       </c>
-      <c r="AE21" s="11" t="str">
+      <c r="AF21" s="11" t="str">
         <f>[11]Model!$AF$34</f>
         <v>Overvalued</v>
       </c>
-      <c r="AF21" s="11" t="s">
+      <c r="AG21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AG21" s="11">
+      <c r="AH21" s="11">
         <v>2019</v>
       </c>
-      <c r="AI21" s="18">
+      <c r="AJ21" s="18">
         <f>[11]Main!$E$3</f>
         <v>45736</v>
       </c>
-      <c r="AJ21" s="18">
+      <c r="AK21" s="18">
         <f>[11]Main!$G$3</f>
         <v>45743</v>
       </c>
